--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5239" uniqueCount="525">
   <si>
     <t>Path</t>
   </si>
@@ -1414,23 +1414,7 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Address for the contact person</t>
-  </si>
-  <si>
-    <t>Address for the contact person.</t>
-  </si>
-  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>NK1-4</t>
   </si>
   <si>
     <t>Patient.contact.gender</t>
@@ -16396,17 +16380,19 @@
         <v>44</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>44</v>
@@ -16464,22 +16450,22 @@
         <v>51</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -16487,7 +16473,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16516,11 +16502,11 @@
         <v>355</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>44</v>
@@ -16569,7 +16555,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -16593,7 +16579,7 @@
         <v>44</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>44</v>
@@ -16601,7 +16587,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16627,14 +16613,14 @@
         <v>284</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -16683,7 +16669,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -16692,13 +16678,13 @@
         <v>51</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>112</v>
@@ -16707,7 +16693,7 @@
         <v>44</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>44</v>
@@ -16715,7 +16701,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16741,10 +16727,10 @@
         <v>198</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16795,7 +16781,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -16810,7 +16796,7 @@
         <v>63</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>112</v>
@@ -16827,7 +16813,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16853,16 +16839,16 @@
         <v>417</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>44</v>
@@ -16911,7 +16897,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -16926,10 +16912,10 @@
         <v>63</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>44</v>
@@ -16943,7 +16929,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17055,7 +17041,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17169,7 +17155,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17285,7 +17271,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17311,16 +17297,16 @@
         <v>129</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -17369,7 +17355,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>51</v>
@@ -17384,16 +17370,16 @@
         <v>63</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -17401,7 +17387,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17427,16 +17413,16 @@
         <v>179</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -17485,7 +17471,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17500,16 +17486,16 @@
         <v>63</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -17517,11 +17503,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17540,16 +17526,16 @@
         <v>44</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17599,7 +17585,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17614,7 +17600,7 @@
         <v>63</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>112</v>
@@ -17623,7 +17609,7 @@
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -17631,7 +17617,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17657,16 +17643,16 @@
         <v>284</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>44</v>
@@ -17715,7 +17701,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -17730,10 +17716,10 @@
         <v>63</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>44</v>
@@ -17747,7 +17733,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17773,16 +17759,16 @@
         <v>417</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -17831,7 +17817,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -17846,7 +17832,7 @@
         <v>63</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>112</v>
@@ -17863,7 +17849,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17975,7 +17961,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18089,7 +18075,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18205,7 +18191,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18228,16 +18214,16 @@
         <v>52</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -18287,7 +18273,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>51</v>
@@ -18311,7 +18297,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18319,7 +18305,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18345,10 +18331,10 @@
         <v>71</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18378,10 +18364,10 @@
         <v>230</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>44</v>
@@ -18399,7 +18385,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>51</v>
@@ -18414,7 +18400,7 @@
         <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>112</v>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5239" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="530">
   <si>
     <t>Path</t>
   </si>
@@ -1414,7 +1414,23 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>Address for the contact person</t>
+  </si>
+  <si>
+    <t>Address for the contact person.</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>NK1-4</t>
   </si>
   <si>
     <t>Patient.contact.gender</t>
@@ -16380,19 +16396,17 @@
         <v>44</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>44</v>
@@ -16450,22 +16464,22 @@
         <v>51</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>388</v>
+        <v>63</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -16473,7 +16487,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16502,11 +16516,11 @@
         <v>355</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>44</v>
@@ -16555,7 +16569,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -16579,7 +16593,7 @@
         <v>44</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>44</v>
@@ -16587,7 +16601,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16613,14 +16627,14 @@
         <v>284</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -16669,7 +16683,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -16678,13 +16692,13 @@
         <v>51</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>112</v>
@@ -16693,7 +16707,7 @@
         <v>44</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>44</v>
@@ -16701,7 +16715,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16727,10 +16741,10 @@
         <v>198</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16781,7 +16795,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -16796,7 +16810,7 @@
         <v>63</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>112</v>
@@ -16813,7 +16827,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16839,16 +16853,16 @@
         <v>417</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>44</v>
@@ -16897,7 +16911,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -16912,10 +16926,10 @@
         <v>63</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>44</v>
@@ -16929,7 +16943,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17041,7 +17055,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17155,7 +17169,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17271,7 +17285,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17297,16 +17311,16 @@
         <v>129</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -17355,7 +17369,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>51</v>
@@ -17370,16 +17384,16 @@
         <v>63</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -17387,7 +17401,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17413,16 +17427,16 @@
         <v>179</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -17471,7 +17485,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17486,16 +17500,16 @@
         <v>63</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -17503,11 +17517,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17526,16 +17540,16 @@
         <v>44</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17585,7 +17599,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17600,7 +17614,7 @@
         <v>63</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>112</v>
@@ -17609,7 +17623,7 @@
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -17617,7 +17631,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17643,16 +17657,16 @@
         <v>284</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>44</v>
@@ -17701,7 +17715,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -17716,10 +17730,10 @@
         <v>63</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>44</v>
@@ -17733,7 +17747,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17759,16 +17773,16 @@
         <v>417</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -17817,7 +17831,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -17832,7 +17846,7 @@
         <v>63</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>112</v>
@@ -17849,7 +17863,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17961,7 +17975,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18075,7 +18089,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18191,7 +18205,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18214,16 +18228,16 @@
         <v>52</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -18273,7 +18287,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>51</v>
@@ -18297,7 +18311,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18305,7 +18319,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18331,10 +18345,10 @@
         <v>71</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18364,10 +18378,10 @@
         <v>230</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>44</v>
@@ -18385,7 +18399,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>51</v>
@@ -18400,7 +18414,7 @@
         <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>112</v>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -8023,7 +8023,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>51</v>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>51</v>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5239" uniqueCount="525">
   <si>
     <t>Path</t>
   </si>
@@ -1414,23 +1414,7 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Address for the contact person</t>
-  </si>
-  <si>
-    <t>Address for the contact person.</t>
-  </si>
-  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>NK1-4</t>
   </si>
   <si>
     <t>Patient.contact.gender</t>
@@ -8023,7 +8007,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -10993,7 +10977,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>51</v>
@@ -13963,7 +13947,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>51</v>
@@ -16396,17 +16380,19 @@
         <v>44</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>44</v>
@@ -16464,22 +16450,22 @@
         <v>51</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -16487,7 +16473,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16516,11 +16502,11 @@
         <v>355</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>44</v>
@@ -16569,7 +16555,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -16593,7 +16579,7 @@
         <v>44</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>44</v>
@@ -16601,7 +16587,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16627,14 +16613,14 @@
         <v>284</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -16683,7 +16669,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -16692,13 +16678,13 @@
         <v>51</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>112</v>
@@ -16707,7 +16693,7 @@
         <v>44</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>44</v>
@@ -16715,7 +16701,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16741,10 +16727,10 @@
         <v>198</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16795,7 +16781,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -16810,7 +16796,7 @@
         <v>63</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>112</v>
@@ -16827,7 +16813,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16853,16 +16839,16 @@
         <v>417</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>44</v>
@@ -16911,7 +16897,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -16926,10 +16912,10 @@
         <v>63</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>44</v>
@@ -16943,7 +16929,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17055,7 +17041,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17169,7 +17155,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17285,7 +17271,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17311,16 +17297,16 @@
         <v>129</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -17369,7 +17355,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>51</v>
@@ -17384,16 +17370,16 @@
         <v>63</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -17401,7 +17387,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17427,16 +17413,16 @@
         <v>179</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -17485,7 +17471,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17500,16 +17486,16 @@
         <v>63</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -17517,11 +17503,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17540,16 +17526,16 @@
         <v>44</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17599,7 +17585,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17614,7 +17600,7 @@
         <v>63</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>112</v>
@@ -17623,7 +17609,7 @@
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -17631,7 +17617,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17657,16 +17643,16 @@
         <v>284</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>44</v>
@@ -17715,7 +17701,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -17730,10 +17716,10 @@
         <v>63</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>44</v>
@@ -17747,7 +17733,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17773,16 +17759,16 @@
         <v>417</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -17831,7 +17817,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -17846,7 +17832,7 @@
         <v>63</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>112</v>
@@ -17863,7 +17849,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17975,7 +17961,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18089,7 +18075,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18205,7 +18191,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18228,16 +18214,16 @@
         <v>52</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -18287,7 +18273,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>51</v>
@@ -18311,7 +18297,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18319,7 +18305,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18345,10 +18331,10 @@
         <v>71</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18378,10 +18364,10 @@
         <v>230</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>44</v>
@@ -18399,7 +18385,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>51</v>
@@ -18414,7 +18400,7 @@
         <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>112</v>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -8007,7 +8007,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>51</v>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>51</v>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T05:33:51+00:00</t>
+    <t>2021-09-21T04:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T04:49:07+00:00</t>
+    <t>2021-09-21T05:03:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T05:03:38+00:00</t>
+    <t>2021-09-21T05:09:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T05:09:35+00:00</t>
+    <t>2021-09-21T05:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T05:13:55+00:00</t>
+    <t>2021-09-21T05:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T05:27:52+00:00</t>
+    <t>2021-09-21T06:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T06:04:42+00:00</t>
+    <t>2021-09-21T06:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T06:19:53+00:00</t>
+    <t>2021-09-22T13:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T13:35:12+00:00</t>
+    <t>2021-09-22T13:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T13:43:05+00:00</t>
+    <t>2021-09-22T13:56:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T13:56:26+00:00</t>
+    <t>2021-10-19T13:53:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T13:53:29+00:00</t>
+    <t>2021-11-08T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T13:44:48+00:00</t>
+    <t>2021-11-12T12:16:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T12:16:44+00:00</t>
+    <t>2021-11-12T12:25:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T12:25:52+00:00</t>
+    <t>2021-11-20T13:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HL7 AT Core Patient Profile</t>
+    <t>HL7® AT Core Patient Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-20T13:08:51+00:00</t>
+    <t>2021-11-20T13:36:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7 Austria FHIR Core Profile for patient pata in Austria.</t>
+    <t>HL7® Austria FHIR® Core Profile for patient pata in Austria.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -755,7 +755,7 @@
     <t>Patient Religion</t>
   </si>
   <si>
-    <t>HL7 Austria FHIR Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-20T13:36:16+00:00</t>
+    <t>2021-11-20T13:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-20T13:50:23+00:00</t>
+    <t>2021-11-20T13:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-20T13:58:17+00:00</t>
+    <t>2021-11-22T16:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:28:47+00:00</t>
+    <t>2021-11-22T16:34:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HL7® AT Core Patient Profile</t>
+    <t>HL7 AT Core Patient Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:34:46+00:00</t>
+    <t>2021-11-23T12:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Profile for patient pata in Austria.</t>
+    <t>HL7 Austria FHIR Core Profile for patient pata in Austria.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -755,7 +755,7 @@
     <t>Patient Religion</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7 Austria FHIR Core Extension for the religion (registered in Austria) of a patient.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T12:34:18+00:00</t>
+    <t>2021-11-23T15:50:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HL7 AT Core Patient Profile</t>
+    <t>HL7® AT Core Patient Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T15:50:14+00:00</t>
+    <t>2021-11-23T19:00:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7 Austria FHIR Core Profile for patient pata in Austria.</t>
+    <t>HL7® Austria FHIR® Core Profile for patient pata in Austria.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -755,7 +755,7 @@
     <t>Patient Religion</t>
   </si>
   <si>
-    <t>HL7 Austria FHIR Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T19:00:36+00:00</t>
+    <t>2021-11-24T15:34:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T15:34:46+00:00</t>
+    <t>2021-11-24T15:36:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T15:36:13+00:00</t>
+    <t>2021-11-24T15:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1127,7 +1127,7 @@
     <t>Patient internal identifier</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>Namespace that assigned the localPatientId.</t>
   </si>
   <si>
     <t>Patient.active</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T15:46:35+00:00</t>
+    <t>2021-11-24T16:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T16:32:43+00:00</t>
+    <t>2021-11-25T09:06:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -580,7 +580,7 @@
     <t>Patient.extension.extension.value[x].coding.system</t>
   </si>
   <si>
-    <t>OID for ISO 3166-1 alpha 3 2016</t>
+    <t>URL for ISO 3166-1 alpha 3 2016</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -592,7 +592,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>urn:oid:1.0.3166.1.2.3</t>
+    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-iso-3166-1-alpha-3</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T09:06:56+00:00</t>
+    <t>2021-11-26T12:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-master/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-master/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T12:24:56+00:00</t>
+    <t>2021-11-26T12:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
